--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Peters/Wilhelm_Peters.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Peters/Wilhelm_Peters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Carl Hartwich Peters (ou Wilhem Carl Hartwig Peters) est un zoologiste et un explorateur allemand, né le 22 avril 1815 à Coldenbüttel, près d'Eiderstedt (de) dans le duché de Schleswig et mort le 20 avril 1883 à Berlin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un pasteur, Peters commence, en 1834, ses études de médecine et d'histoire naturelle à l'université de Copenhague puis à celle de Berlin où il passera le reste de sa carrière. Après être diplôme en 1838, il passe dix-huit mois à travailler sur le terrain avec Henri Milne Edwards (1800-1885) dans la région méditerranéenne. À son retour à Berlin, il devient l'assistant du grand anatomiste Johannes Peter Müller (1801-1858).
 Il élabore immédiatement les détails d'un grand projet, une exploration du Mozambique, pour lequel il a le soutien enthousiaste de Müller et de Alexander von Humboldt (1769-1859). Peters quitte Berlin en septembre 1842 et atteint l'Angola puis le Mozambique en juin 1843. Il explore la région pendant quatre ans et visite notamment, outre l'intérieur du Mozambique, Zanzibar, les Comores et Madagascar. Il vient également au Cap, principalement pour se remettre d'une maladie contractée lors de ses excursions. Il repart finalement en Europe en août 1847 via l'Inde et l'Égypte. Il rapporte d'immenses collections et publie, en 1852 et 1852, en quatre gros volumes, le compte-rendu de son expédition sous le titre de Naturwissenschaftliche Reise nach Mossambique...  in den Jahren 1842 bis 1848 ausgeführt.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1838 : Observationes ad anatomiam Cheloniorum, thèse, Berlin.
 1852-1868 : Naturwissenschaftliche Reise nach Mossambique, auf Befehl seiner Majestät des Königs Friedrich Wilhelm IV. in den Jahren 1842 bis 1848 ausgeführt, Berlin.
